--- a/contactos.xlsx
+++ b/contactos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marco\CodigosPython\RobotWhatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6564F-74EB-4415-9980-9CFC3EF76766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E4A78-B5FE-4353-AEFB-9892773D3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D40EAC3-5654-4F8D-A37D-BF1D4BCE4A28}"/>
+    <workbookView xWindow="5505" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3D40EAC3-5654-4F8D-A37D-BF1D4BCE4A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,114 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>celular</t>
   </si>
   <si>
-    <t>placa</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
     <t>9/07/2021</t>
   </si>
   <si>
-    <t>10/07/2021</t>
-  </si>
-  <si>
-    <t>12/07/2021</t>
-  </si>
-  <si>
-    <t>13/07/2021</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
-  </si>
-  <si>
-    <t>X1A331</t>
-  </si>
-  <si>
-    <t>C1G113</t>
-  </si>
-  <si>
-    <t>Z2O423</t>
-  </si>
-  <si>
-    <t>B1M154</t>
-  </si>
-  <si>
-    <t>V3U612</t>
-  </si>
-  <si>
-    <t>W2R441</t>
-  </si>
-  <si>
-    <t>V5Y354</t>
-  </si>
-  <si>
-    <t>A4K559</t>
-  </si>
-  <si>
-    <t>V4X297</t>
-  </si>
-  <si>
-    <t>V1H385</t>
-  </si>
-  <si>
-    <t>V2W158</t>
-  </si>
-  <si>
-    <t>F2X138</t>
-  </si>
-  <si>
-    <t>X2R517</t>
-  </si>
-  <si>
-    <t>902925300</t>
-  </si>
-  <si>
-    <t>981073936</t>
-  </si>
-  <si>
-    <t>966156263</t>
-  </si>
-  <si>
-    <t>993772037</t>
-  </si>
-  <si>
-    <t>923301972</t>
-  </si>
-  <si>
-    <t>976255775</t>
-  </si>
-  <si>
-    <t>974567139</t>
-  </si>
-  <si>
-    <t>935660674</t>
-  </si>
-  <si>
-    <t>940746144</t>
-  </si>
-  <si>
-    <t>966696779</t>
-  </si>
-  <si>
-    <t>997028617</t>
-  </si>
-  <si>
-    <t>922980495</t>
-  </si>
-  <si>
-    <t>953424170</t>
+    <t>placaGeneral</t>
+  </si>
+  <si>
+    <t>08171V5</t>
+  </si>
+  <si>
+    <t>V0V149</t>
   </si>
 </sst>
 </file>
@@ -502,16 +412,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA73E77-DD45-4670-BC86-0BAD4FCCFC38}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,153 +430,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
+      <c r="A2">
+        <v>957031088</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="A3">
+        <v>957031088</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
